--- a/SambaWage_250825.xlsx
+++ b/SambaWage_250825.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanskim/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanskim/Projects/2026_Wage_Prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D8AE57-CC71-9147-9575-9A2B05078F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3500A-C3BA-A34A-9897-3ABAFAEC25D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="1440" windowWidth="44120" windowHeight="19380" xr2:uid="{9DBF3F26-924E-4DBE-8A1B-1CA791F647F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wage_increase_ce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>revenue_growth_ce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +291,6 @@
   </si>
   <si>
     <t>ecii_usa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c사 임금인상률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A77A24-F178-497C-9186-F665B56E7AD6}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -763,115 +755,112 @@
     <col min="16" max="16" width="20.5" style="2" customWidth="1"/>
     <col min="17" max="18" width="20.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="20.5" style="3" customWidth="1"/>
-    <col min="20" max="32" width="20.5" style="1" customWidth="1"/>
-    <col min="33" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="20.5" style="1" customWidth="1"/>
+    <col min="32" max="33" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -930,52 +919,49 @@
         <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:33">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
@@ -1045,11 +1031,11 @@
       <c r="W3" s="5">
         <v>260669791</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>30</v>
+      <c r="X3" s="5">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1.53</v>
       </c>
       <c r="Z3" s="5">
         <v>3.5000000000000003E-2</v>
@@ -1069,17 +1055,14 @@
       <c r="AE3" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AF3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="6">
+      <c r="AF3" s="6">
         <v>0</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AG3" s="8">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -1173,17 +1156,14 @@
       <c r="AE4" s="5">
         <v>0.03</v>
       </c>
-      <c r="AF4" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AG4" s="6">
+      <c r="AF4" s="6">
         <v>0.02</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AG4" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:33">
       <c r="A5" s="1">
         <v>2017</v>
       </c>
@@ -1277,17 +1257,14 @@
       <c r="AE5" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AF5" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AG5" s="6">
+      <c r="AF5" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AG5" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:33">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -1381,17 +1358,14 @@
       <c r="AE6" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AF6" s="8">
-        <v>0.105</v>
-      </c>
-      <c r="AG6" s="6">
+      <c r="AF6" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AG6" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:33">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -1485,17 +1459,14 @@
       <c r="AE7" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AF7" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AG7" s="6">
+      <c r="AF7" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AG7" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:33">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -1589,17 +1560,14 @@
       <c r="AE8" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AF8" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AG8" s="6">
+      <c r="AF8" s="6">
         <v>0.02</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AG8" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:33">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -1693,17 +1661,14 @@
       <c r="AE9" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="AF9" s="8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="AG9" s="6">
+      <c r="AF9" s="6">
         <v>0.03</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AG9" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:33">
       <c r="A10" s="1">
         <v>2022</v>
       </c>
@@ -1797,17 +1762,14 @@
       <c r="AE10" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="AF10" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AG10" s="6">
+      <c r="AF10" s="6">
         <v>0.03</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AG10" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:33">
       <c r="A11" s="1">
         <v>2023</v>
       </c>
@@ -1901,17 +1863,14 @@
       <c r="AE11" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AF11" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="AG11" s="6">
+      <c r="AF11" s="6">
         <v>0.02</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AG11" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:33">
       <c r="A12" s="1">
         <v>2024</v>
       </c>
@@ -2005,17 +1964,14 @@
       <c r="AE12" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF12" s="8">
-        <v>9.4E-2</v>
-      </c>
-      <c r="AG12" s="6">
+      <c r="AF12" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AG12" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="9" customFormat="1">
+    <row r="13" spans="1:33" s="9" customFormat="1">
       <c r="A13" s="10">
         <v>2025</v>
       </c>
@@ -2074,16 +2030,16 @@
         <v>466334065.05699998</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X13" s="7">
         <v>0.13800000000000001</v>
@@ -2109,9 +2065,8 @@
       <c r="AE13" s="7">
         <v>0.03</v>
       </c>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="11"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,15 +2075,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100A6728B977A874E43B56BEED374CF4059" ma:contentTypeVersion="11" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5b7cbf0a2ff009bfae4516615af6fd2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="61c490aa-309d-4be9-93a0-315375547dd1" xmlns:ns3="f0fc69ba-e8a9-4daa-869f-a875f1b9cafb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bf0bdc2c18af09adc7d2f1462c7872b" ns2:_="" ns3:_="">
     <xsd:import namespace="61c490aa-309d-4be9-93a0-315375547dd1"/>
@@ -2323,6 +2269,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2335,14 +2290,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F3E6FB-4F87-4F37-9E1B-6287DEF6603D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4707AA2E-C13E-49EF-9361-E65FA979D70E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2357,6 +2304,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F3E6FB-4F87-4F37-9E1B-6287DEF6603D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SambaWage_250825.xlsx
+++ b/SambaWage_250825.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanskim/Projects/2026_Wage_Prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3500A-C3BA-A34A-9897-3ABAFAEC25D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63EBF5D-A604-594F-8889-BD6910031F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1440" windowWidth="44120" windowHeight="19380" xr2:uid="{9DBF3F26-924E-4DBE-8A1B-1CA791F647F1}"/>
+    <workbookView xWindow="0" yWindow="3260" windowWidth="16120" windowHeight="19380" xr2:uid="{9DBF3F26-924E-4DBE-8A1B-1CA791F647F1}"/>
   </bookViews>
   <sheets>
     <sheet name="임금인상률" sheetId="1" r:id="rId1"/>
@@ -743,19 +743,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A77A24-F178-497C-9186-F665B56E7AD6}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:Y3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="2" customWidth="1"/>
-    <col min="17" max="18" width="20.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="3" customWidth="1"/>
-    <col min="20" max="31" width="20.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="13" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="31" width="20.5" style="1" hidden="1" customWidth="1"/>
     <col min="32" max="33" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2071,10 +2072,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0fc69ba-e8a9-4daa-869f-a875f1b9cafb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61c490aa-309d-4be9-93a0-315375547dd1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100A6728B977A874E43B56BEED374CF4059" ma:contentTypeVersion="11" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5b7cbf0a2ff009bfae4516615af6fd2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="61c490aa-309d-4be9-93a0-315375547dd1" xmlns:ns3="f0fc69ba-e8a9-4daa-869f-a875f1b9cafb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bf0bdc2c18af09adc7d2f1462c7872b" ns2:_="" ns3:_="">
     <xsd:import namespace="61c490aa-309d-4be9-93a0-315375547dd1"/>
@@ -2269,27 +2291,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{954E43AB-0F27-4CFB-9FE5-E852BBC49700}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="61c490aa-309d-4be9-93a0-315375547dd1"/>
+    <ds:schemaRef ds:uri="f0fc69ba-e8a9-4daa-869f-a875f1b9cafb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0fc69ba-e8a9-4daa-869f-a875f1b9cafb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61c490aa-309d-4be9-93a0-315375547dd1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F3E6FB-4F87-4F37-9E1B-6287DEF6603D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4707AA2E-C13E-49EF-9361-E65FA979D70E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2306,29 +2333,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F3E6FB-4F87-4F37-9E1B-6287DEF6603D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{954E43AB-0F27-4CFB-9FE5-E852BBC49700}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="61c490aa-309d-4be9-93a0-315375547dd1"/>
-    <ds:schemaRef ds:uri="f0fc69ba-e8a9-4daa-869f-a875f1b9cafb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>